--- a/results/toul_1205_sl_adr_0.xlsx
+++ b/results/toul_1205_sl_adr_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minjingshi/Desktop/logi2dial/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0AE097-4B87-4346-B725-D640B2B1AC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023A8799-E687-7E4E-8392-D5E45AA21564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -834,5 +834,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>